--- a/TestStatusReport_project Github.xlsx
+++ b/TestStatusReport_project Github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5711D3CD-2A7B-4FE3-AD1B-C2532DA01C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C984AD9A-3D6C-4515-9DE7-4CF9D07D71B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
   <si>
     <t>TestCaseID - Title</t>
   </si>
@@ -478,6 +478,43 @@
   </si>
   <si>
     <t xml:space="preserve">Campul afiseaza pagina initiala </t>
+  </si>
+  <si>
+    <t>13'.Testarea butonului refresh</t>
+  </si>
+  <si>
+    <t>Campul afiseaza pagina cu 
+continua catre plata</t>
+  </si>
+  <si>
+    <t>13''.Testarea butonului de adaugare 
+voucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Accesare site                                                   2.Introducere credentiale corecte                          3.Aapsare buton login                                            4.Apasare buton adaugare voucher                                </t>
+  </si>
+  <si>
+    <t>1.Ovidiu    2.12345   3.buton 
+adauga voucher</t>
+  </si>
+  <si>
+    <t>Campul afiseaza pagina unde
+se pot introduce codurile pt 
+voucher</t>
+  </si>
+  <si>
+    <t>13'''.Testare buton oferte</t>
+  </si>
+  <si>
+    <t>1.Accesare site                                                   2.Introducere credentiale corecte                          3.Aapsare buton login                                            4.Apasare buton Oferte</t>
+  </si>
+  <si>
+    <t>1.Ovidiu   2.12345   3.Buton 
+oferte</t>
+  </si>
+  <si>
+    <t>Campul afiseaza pagina cu
+actualele oferte</t>
   </si>
 </sst>
 </file>
@@ -698,11 +735,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -731,6 +763,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1078,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1058,7 +1095,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1071,7 +1108,7 @@
       <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1082,7 +1119,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1093,7 +1130,7 @@
       <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1104,7 +1141,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1115,7 +1152,7 @@
       <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1139,7 +1176,7 @@
       <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1161,7 +1198,7 @@
       <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1183,7 +1220,7 @@
       <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1195,42 +1232,42 @@
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="12"/>
@@ -1239,20 +1276,20 @@
     </row>
     <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="12"/>
@@ -1261,20 +1298,20 @@
     </row>
     <row r="11" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="12"/>
@@ -1283,20 +1320,20 @@
     </row>
     <row r="12" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="26" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="12"/>
@@ -1305,20 +1342,20 @@
     </row>
     <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="26" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="12"/>
@@ -1327,20 +1364,20 @@
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="26" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="12"/>
@@ -1349,20 +1386,20 @@
     </row>
     <row r="15" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="26" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="12"/>
@@ -1371,20 +1408,20 @@
     </row>
     <row r="16" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="26" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="12"/>
@@ -1393,20 +1430,20 @@
     </row>
     <row r="17" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="26" t="s">
         <v>80</v>
       </c>
       <c r="H17" s="12"/>
@@ -1415,20 +1452,20 @@
     </row>
     <row r="18" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="26" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="12"/>
@@ -1437,20 +1474,20 @@
     </row>
     <row r="19" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="26" t="s">
         <v>88</v>
       </c>
       <c r="H19" s="12"/>
@@ -1459,20 +1496,20 @@
     </row>
     <row r="20" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="26" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="12"/>
@@ -1481,20 +1518,20 @@
     </row>
     <row r="21" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="26" t="s">
         <v>94</v>
       </c>
       <c r="H21" s="12"/>
@@ -1503,20 +1540,20 @@
     </row>
     <row r="22" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="26" t="s">
         <v>100</v>
       </c>
       <c r="H22" s="12"/>
@@ -1525,20 +1562,20 @@
     </row>
     <row r="23" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="26" t="s">
         <v>102</v>
       </c>
       <c r="H23" s="12"/>
@@ -1547,20 +1584,20 @@
     </row>
     <row r="24" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="26" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="12"/>
@@ -1569,58 +1606,88 @@
     </row>
     <row r="25" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="E27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="E28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
@@ -3459,10 +3526,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17">
         <f>COUNTIF(TestCases!B2:B60,"*")</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="17">
         <f>COUNTIF(TestCases!I2:O60,"Pass")</f>
